--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.466032</v>
+        <v>0.7302023333333333</v>
       </c>
       <c r="H2">
-        <v>4.398096</v>
+        <v>2.190607</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N2">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.191535614768</v>
+        <v>0.2474957524631111</v>
       </c>
       <c r="R2">
-        <v>1.723820532912</v>
+        <v>2.227461772168</v>
       </c>
       <c r="S2">
         <v>1</v>
